--- a/data/Insuit/litter_respiration.xlsx
+++ b/data/Insuit/litter_respiration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="183">
   <si>
     <t>Group</t>
   </si>
@@ -27,532 +27,535 @@
     <t>Rank</t>
   </si>
   <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Time_lag</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Time_lag</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
+    <t>Sampling_time</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>stem</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>NP1</t>
+  </si>
+  <si>
+    <t>NP2</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>茎</t>
+  </si>
+  <si>
+    <t>采样时间（min）</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t>CK1-1</t>
+  </si>
+  <si>
+    <t>CK1-2</t>
+  </si>
+  <si>
+    <t>CK1-3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CK1-4</t>
+  </si>
+  <si>
+    <t>CK2-1</t>
+  </si>
+  <si>
+    <t>CK2-2</t>
+  </si>
+  <si>
+    <t>CK2-3</t>
+  </si>
+  <si>
+    <t>CK2-4</t>
+  </si>
+  <si>
+    <t>CK3-1</t>
+  </si>
+  <si>
+    <t>CK3-2</t>
+  </si>
+  <si>
+    <t>CK3-3</t>
+  </si>
+  <si>
+    <t>CK3-4</t>
+  </si>
+  <si>
+    <t>CK4-1</t>
+  </si>
+  <si>
+    <t>CK4-2</t>
+  </si>
+  <si>
+    <t>CK4-3</t>
+  </si>
+  <si>
+    <t>CK4-4</t>
+  </si>
+  <si>
+    <t>CK5-1</t>
+  </si>
+  <si>
+    <t>CK5-2</t>
+  </si>
+  <si>
+    <t>CK5-3</t>
+  </si>
+  <si>
+    <t>CK5-4</t>
+  </si>
+  <si>
+    <t>N1_1-1</t>
+  </si>
+  <si>
+    <t>N1_1-2</t>
+  </si>
+  <si>
+    <t>N1_1-3</t>
+  </si>
+  <si>
+    <t>N1_1-4</t>
+  </si>
+  <si>
+    <t>N1_2-1</t>
+  </si>
+  <si>
+    <t>N1_2-2</t>
+  </si>
+  <si>
+    <t>N1_2-3</t>
+  </si>
+  <si>
+    <t>N1_2-4</t>
+  </si>
+  <si>
+    <t>N1_3-1</t>
+  </si>
+  <si>
+    <t>N1_3-2</t>
+  </si>
+  <si>
+    <t>N1_3-3</t>
+  </si>
+  <si>
+    <t>N1_3-4</t>
+  </si>
+  <si>
+    <t>N1_4-1</t>
+  </si>
+  <si>
+    <t>N1_4-2</t>
+  </si>
+  <si>
+    <t>N1_4-3</t>
+  </si>
+  <si>
+    <t>N1_4-4</t>
+  </si>
+  <si>
+    <t>N1_5-1</t>
+  </si>
+  <si>
+    <t>N1_5-2</t>
+  </si>
+  <si>
+    <t>N1_5-3</t>
+  </si>
+  <si>
+    <t>N1_5-4</t>
+  </si>
+  <si>
+    <t>N2_1-1</t>
+  </si>
+  <si>
+    <t>N2_1-2</t>
+  </si>
+  <si>
+    <t>N2_1-3</t>
+  </si>
+  <si>
+    <t>N2_1-4</t>
+  </si>
+  <si>
+    <t>N2_2-1</t>
+  </si>
+  <si>
+    <t>N2_2-2</t>
+  </si>
+  <si>
+    <t>N2_2-3</t>
+  </si>
+  <si>
+    <t>N2_2-4</t>
+  </si>
+  <si>
+    <t>N2_3-1</t>
+  </si>
+  <si>
+    <t>N2_3-2</t>
+  </si>
+  <si>
+    <t>N2_3-3</t>
+  </si>
+  <si>
+    <t>N2_3-4</t>
+  </si>
+  <si>
+    <t>N2_4-1</t>
+  </si>
+  <si>
+    <t>N2_4-2</t>
+  </si>
+  <si>
+    <t>N2_4-3</t>
+  </si>
+  <si>
+    <t>N2_4-4</t>
+  </si>
+  <si>
+    <t>N2_5-1</t>
+  </si>
+  <si>
+    <t>N2_5-2</t>
+  </si>
+  <si>
+    <t>N2_5-3</t>
+  </si>
+  <si>
+    <t>N2_5-4</t>
+  </si>
+  <si>
+    <t>P1_1-1</t>
+  </si>
+  <si>
+    <t>P1_1-2</t>
+  </si>
+  <si>
+    <t>P1_1-3</t>
+  </si>
+  <si>
+    <t>P1_1-4</t>
+  </si>
+  <si>
+    <t>P1_2-1</t>
+  </si>
+  <si>
+    <t>P1_2-2</t>
+  </si>
+  <si>
+    <t>P1_2-3</t>
+  </si>
+  <si>
+    <t>P1_2-4</t>
+  </si>
+  <si>
+    <t>P1_3-1</t>
+  </si>
+  <si>
+    <t>P1_3-2</t>
+  </si>
+  <si>
+    <t>P1_3-3</t>
+  </si>
+  <si>
+    <t>P1_3-4</t>
+  </si>
+  <si>
+    <t>P1_4-1</t>
+  </si>
+  <si>
+    <t>P1_4-2</t>
+  </si>
+  <si>
+    <t>P1_4-3</t>
+  </si>
+  <si>
+    <t>P1_4-4</t>
+  </si>
+  <si>
+    <t>P1_5-1</t>
+  </si>
+  <si>
+    <t>P1_5-2</t>
+  </si>
+  <si>
+    <t>P1_5-3</t>
+  </si>
+  <si>
+    <t>P1_5-4</t>
+  </si>
+  <si>
+    <t>P2_1-1</t>
+  </si>
+  <si>
+    <t>P2_1-2</t>
+  </si>
+  <si>
+    <t>P2_1-3</t>
+  </si>
+  <si>
+    <t>P2_1-4</t>
+  </si>
+  <si>
+    <t>P2_2-1</t>
+  </si>
+  <si>
+    <t>P2_2-2</t>
+  </si>
+  <si>
+    <t>P2_2-3</t>
+  </si>
+  <si>
+    <t>P2_2-4</t>
+  </si>
+  <si>
+    <t>P2_3-1</t>
+  </si>
+  <si>
+    <t>P2_3-2</t>
+  </si>
+  <si>
+    <t>P2_3-3</t>
+  </si>
+  <si>
+    <t>P2_3-4</t>
+  </si>
+  <si>
+    <t>P2_4-1</t>
+  </si>
+  <si>
+    <t>P2_4-2</t>
+  </si>
+  <si>
+    <t>P2_4-3</t>
+  </si>
+  <si>
+    <t>P2_4-4</t>
+  </si>
+  <si>
+    <t>P2_5-1</t>
+  </si>
+  <si>
+    <t>P2_5-2</t>
+  </si>
+  <si>
+    <t>P2_5-3</t>
+  </si>
+  <si>
+    <t>P2_5-4</t>
+  </si>
+  <si>
+    <t>NP1_1-1</t>
+  </si>
+  <si>
+    <t>NP1_1-2</t>
+  </si>
+  <si>
+    <t>NP1_1-3</t>
+  </si>
+  <si>
+    <t>NP1_1-4</t>
+  </si>
+  <si>
+    <t>NP1_2-1</t>
+  </si>
+  <si>
+    <t>NP1_2-2</t>
+  </si>
+  <si>
+    <t>NP1_2-3</t>
+  </si>
+  <si>
+    <t>NP1_2-4</t>
+  </si>
+  <si>
+    <t>NP1_3-1</t>
+  </si>
+  <si>
+    <t>NP1_3-2</t>
+  </si>
+  <si>
+    <t>NP1_3-3</t>
+  </si>
+  <si>
+    <t>NP1_3-4</t>
+  </si>
+  <si>
+    <t>NP1_4-1</t>
+  </si>
+  <si>
+    <t>NP1_4-2</t>
+  </si>
+  <si>
+    <t>NP1_4-3</t>
+  </si>
+  <si>
+    <t>NP1_4-4</t>
+  </si>
+  <si>
+    <t>NP1_5-1</t>
+  </si>
+  <si>
+    <t>NP1_5-2</t>
+  </si>
+  <si>
+    <t>NP1_5-3</t>
+  </si>
+  <si>
+    <t>NP1_5-4</t>
+  </si>
+  <si>
+    <t>NP2_1-1</t>
+  </si>
+  <si>
+    <t>NP2_1-2</t>
+  </si>
+  <si>
+    <t>NP2_1-3</t>
+  </si>
+  <si>
+    <t>NP2_1-4</t>
+  </si>
+  <si>
+    <t>NP2_2-1</t>
+  </si>
+  <si>
+    <t>NP2_2-2</t>
+  </si>
+  <si>
+    <t>NP2_2-3</t>
+  </si>
+  <si>
+    <t>NP2_2-4</t>
+  </si>
+  <si>
+    <t>NP2_3-1</t>
+  </si>
+  <si>
+    <t>NP2_3-2</t>
+  </si>
+  <si>
+    <t>NP2_3-3</t>
+  </si>
+  <si>
+    <t>NP2_3-4</t>
+  </si>
+  <si>
+    <t>NP2_4-1</t>
+  </si>
+  <si>
+    <t>NP2_4-2</t>
+  </si>
+  <si>
+    <t>NP2_4-3</t>
+  </si>
+  <si>
+    <t>NP2_4-4</t>
+  </si>
+  <si>
+    <t>NP2_5-1</t>
+  </si>
+  <si>
+    <t>NP2_5-2</t>
+  </si>
+  <si>
+    <t>NP2_5-3</t>
+  </si>
+  <si>
+    <t>NP2_5-4</t>
+  </si>
+  <si>
+    <t>2022/03/27空气1</t>
+  </si>
+  <si>
+    <t>2022/03/27空气2</t>
+  </si>
+  <si>
+    <t>2022/03/27空气3</t>
+  </si>
+  <si>
+    <t>2022/03/27空气4</t>
+  </si>
+  <si>
+    <t>2022/03/29空气</t>
+  </si>
+  <si>
+    <t>为7个添加处理</t>
+  </si>
+  <si>
+    <t>每个添加处理的平行处理</t>
+  </si>
+  <si>
+    <t>测定凋落物附着物呼吸的方法，在一个小时内每隔20 min取一次气，共取四次</t>
+  </si>
+  <si>
+    <t>每次取气的时间</t>
+  </si>
+  <si>
+    <t>取气测定时间间隔</t>
+  </si>
+  <si>
+    <t>茎和叶分类</t>
+  </si>
+  <si>
+    <t>浓度 ppm</t>
+  </si>
+  <si>
+    <t>为缺失值</t>
   </si>
   <si>
     <t>Decomposition_time</t>
-  </si>
-  <si>
-    <t>Sampling_time</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>CK</t>
-  </si>
-  <si>
-    <t>stem</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>N2</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>NP1</t>
-  </si>
-  <si>
-    <t>NP2</t>
-  </si>
-  <si>
-    <t>leaf</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>茎</t>
-  </si>
-  <si>
-    <t>采样时间（min）</t>
-  </si>
-  <si>
-    <t>叶</t>
-  </si>
-  <si>
-    <t>CK1-1</t>
-  </si>
-  <si>
-    <t>CK1-2</t>
-  </si>
-  <si>
-    <t>CK1-3</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>CK1-4</t>
-  </si>
-  <si>
-    <t>CK2-1</t>
-  </si>
-  <si>
-    <t>CK2-2</t>
-  </si>
-  <si>
-    <t>CK2-3</t>
-  </si>
-  <si>
-    <t>CK2-4</t>
-  </si>
-  <si>
-    <t>CK3-1</t>
-  </si>
-  <si>
-    <t>CK3-2</t>
-  </si>
-  <si>
-    <t>CK3-3</t>
-  </si>
-  <si>
-    <t>CK3-4</t>
-  </si>
-  <si>
-    <t>CK4-1</t>
-  </si>
-  <si>
-    <t>CK4-2</t>
-  </si>
-  <si>
-    <t>CK4-3</t>
-  </si>
-  <si>
-    <t>CK4-4</t>
-  </si>
-  <si>
-    <t>CK5-1</t>
-  </si>
-  <si>
-    <t>CK5-2</t>
-  </si>
-  <si>
-    <t>CK5-3</t>
-  </si>
-  <si>
-    <t>CK5-4</t>
-  </si>
-  <si>
-    <t>N1_1-1</t>
-  </si>
-  <si>
-    <t>N1_1-2</t>
-  </si>
-  <si>
-    <t>N1_1-3</t>
-  </si>
-  <si>
-    <t>N1_1-4</t>
-  </si>
-  <si>
-    <t>N1_2-1</t>
-  </si>
-  <si>
-    <t>N1_2-2</t>
-  </si>
-  <si>
-    <t>N1_2-3</t>
-  </si>
-  <si>
-    <t>N1_2-4</t>
-  </si>
-  <si>
-    <t>N1_3-1</t>
-  </si>
-  <si>
-    <t>N1_3-2</t>
-  </si>
-  <si>
-    <t>N1_3-3</t>
-  </si>
-  <si>
-    <t>N1_3-4</t>
-  </si>
-  <si>
-    <t>N1_4-1</t>
-  </si>
-  <si>
-    <t>N1_4-2</t>
-  </si>
-  <si>
-    <t>N1_4-3</t>
-  </si>
-  <si>
-    <t>N1_4-4</t>
-  </si>
-  <si>
-    <t>N1_5-1</t>
-  </si>
-  <si>
-    <t>N1_5-2</t>
-  </si>
-  <si>
-    <t>N1_5-3</t>
-  </si>
-  <si>
-    <t>N1_5-4</t>
-  </si>
-  <si>
-    <t>N2_1-1</t>
-  </si>
-  <si>
-    <t>N2_1-2</t>
-  </si>
-  <si>
-    <t>N2_1-3</t>
-  </si>
-  <si>
-    <t>N2_1-4</t>
-  </si>
-  <si>
-    <t>N2_2-1</t>
-  </si>
-  <si>
-    <t>N2_2-2</t>
-  </si>
-  <si>
-    <t>N2_2-3</t>
-  </si>
-  <si>
-    <t>N2_2-4</t>
-  </si>
-  <si>
-    <t>N2_3-1</t>
-  </si>
-  <si>
-    <t>N2_3-2</t>
-  </si>
-  <si>
-    <t>N2_3-3</t>
-  </si>
-  <si>
-    <t>N2_3-4</t>
-  </si>
-  <si>
-    <t>N2_4-1</t>
-  </si>
-  <si>
-    <t>N2_4-2</t>
-  </si>
-  <si>
-    <t>N2_4-3</t>
-  </si>
-  <si>
-    <t>N2_4-4</t>
-  </si>
-  <si>
-    <t>N2_5-1</t>
-  </si>
-  <si>
-    <t>N2_5-2</t>
-  </si>
-  <si>
-    <t>N2_5-3</t>
-  </si>
-  <si>
-    <t>N2_5-4</t>
-  </si>
-  <si>
-    <t>P1_1-1</t>
-  </si>
-  <si>
-    <t>P1_1-2</t>
-  </si>
-  <si>
-    <t>P1_1-3</t>
-  </si>
-  <si>
-    <t>P1_1-4</t>
-  </si>
-  <si>
-    <t>P1_2-1</t>
-  </si>
-  <si>
-    <t>P1_2-2</t>
-  </si>
-  <si>
-    <t>P1_2-3</t>
-  </si>
-  <si>
-    <t>P1_2-4</t>
-  </si>
-  <si>
-    <t>P1_3-1</t>
-  </si>
-  <si>
-    <t>P1_3-2</t>
-  </si>
-  <si>
-    <t>P1_3-3</t>
-  </si>
-  <si>
-    <t>P1_3-4</t>
-  </si>
-  <si>
-    <t>P1_4-1</t>
-  </si>
-  <si>
-    <t>P1_4-2</t>
-  </si>
-  <si>
-    <t>P1_4-3</t>
-  </si>
-  <si>
-    <t>P1_4-4</t>
-  </si>
-  <si>
-    <t>P1_5-1</t>
-  </si>
-  <si>
-    <t>P1_5-2</t>
-  </si>
-  <si>
-    <t>P1_5-3</t>
-  </si>
-  <si>
-    <t>P1_5-4</t>
-  </si>
-  <si>
-    <t>P2_1-1</t>
-  </si>
-  <si>
-    <t>P2_1-2</t>
-  </si>
-  <si>
-    <t>P2_1-3</t>
-  </si>
-  <si>
-    <t>P2_1-4</t>
-  </si>
-  <si>
-    <t>P2_2-1</t>
-  </si>
-  <si>
-    <t>P2_2-2</t>
-  </si>
-  <si>
-    <t>P2_2-3</t>
-  </si>
-  <si>
-    <t>P2_2-4</t>
-  </si>
-  <si>
-    <t>P2_3-1</t>
-  </si>
-  <si>
-    <t>P2_3-2</t>
-  </si>
-  <si>
-    <t>P2_3-3</t>
-  </si>
-  <si>
-    <t>P2_3-4</t>
-  </si>
-  <si>
-    <t>P2_4-1</t>
-  </si>
-  <si>
-    <t>P2_4-2</t>
-  </si>
-  <si>
-    <t>P2_4-3</t>
-  </si>
-  <si>
-    <t>P2_4-4</t>
-  </si>
-  <si>
-    <t>P2_5-1</t>
-  </si>
-  <si>
-    <t>P2_5-2</t>
-  </si>
-  <si>
-    <t>P2_5-3</t>
-  </si>
-  <si>
-    <t>P2_5-4</t>
-  </si>
-  <si>
-    <t>NP1_1-1</t>
-  </si>
-  <si>
-    <t>NP1_1-2</t>
-  </si>
-  <si>
-    <t>NP1_1-3</t>
-  </si>
-  <si>
-    <t>NP1_1-4</t>
-  </si>
-  <si>
-    <t>NP1_2-1</t>
-  </si>
-  <si>
-    <t>NP1_2-2</t>
-  </si>
-  <si>
-    <t>NP1_2-3</t>
-  </si>
-  <si>
-    <t>NP1_2-4</t>
-  </si>
-  <si>
-    <t>NP1_3-1</t>
-  </si>
-  <si>
-    <t>NP1_3-2</t>
-  </si>
-  <si>
-    <t>NP1_3-3</t>
-  </si>
-  <si>
-    <t>NP1_3-4</t>
-  </si>
-  <si>
-    <t>NP1_4-1</t>
-  </si>
-  <si>
-    <t>NP1_4-2</t>
-  </si>
-  <si>
-    <t>NP1_4-3</t>
-  </si>
-  <si>
-    <t>NP1_4-4</t>
-  </si>
-  <si>
-    <t>NP1_5-1</t>
-  </si>
-  <si>
-    <t>NP1_5-2</t>
-  </si>
-  <si>
-    <t>NP1_5-3</t>
-  </si>
-  <si>
-    <t>NP1_5-4</t>
-  </si>
-  <si>
-    <t>NP2_1-1</t>
-  </si>
-  <si>
-    <t>NP2_1-2</t>
-  </si>
-  <si>
-    <t>NP2_1-3</t>
-  </si>
-  <si>
-    <t>NP2_1-4</t>
-  </si>
-  <si>
-    <t>NP2_2-1</t>
-  </si>
-  <si>
-    <t>NP2_2-2</t>
-  </si>
-  <si>
-    <t>NP2_2-3</t>
-  </si>
-  <si>
-    <t>NP2_2-4</t>
-  </si>
-  <si>
-    <t>NP2_3-1</t>
-  </si>
-  <si>
-    <t>NP2_3-2</t>
-  </si>
-  <si>
-    <t>NP2_3-3</t>
-  </si>
-  <si>
-    <t>NP2_3-4</t>
-  </si>
-  <si>
-    <t>NP2_4-1</t>
-  </si>
-  <si>
-    <t>NP2_4-2</t>
-  </si>
-  <si>
-    <t>NP2_4-3</t>
-  </si>
-  <si>
-    <t>NP2_4-4</t>
-  </si>
-  <si>
-    <t>NP2_5-1</t>
-  </si>
-  <si>
-    <t>NP2_5-2</t>
-  </si>
-  <si>
-    <t>NP2_5-3</t>
-  </si>
-  <si>
-    <t>NP2_5-4</t>
-  </si>
-  <si>
-    <t>2022/03/27空气1</t>
-  </si>
-  <si>
-    <t>2022/03/27空气2</t>
-  </si>
-  <si>
-    <t>2022/03/27空气3</t>
-  </si>
-  <si>
-    <t>2022/03/27空气4</t>
-  </si>
-  <si>
-    <t>2022/03/29空气</t>
-  </si>
-  <si>
-    <t>为7个添加处理</t>
-  </si>
-  <si>
-    <t>每个添加处理的平行处理</t>
-  </si>
-  <si>
-    <t>测定凋落物附着物呼吸的方法，在一个小时内每隔20 min取一次气，共取四次</t>
-  </si>
-  <si>
-    <t>每次取气的时间</t>
-  </si>
-  <si>
-    <t>取气测定时间间隔</t>
-  </si>
-  <si>
-    <t>茎和叶分类</t>
-  </si>
-  <si>
-    <t>浓度 ppm</t>
-  </si>
-  <si>
-    <t>为缺失值</t>
   </si>
   <si>
     <t>为分解时间/day</t>
@@ -569,12 +572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -608,7 +611,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,6 +632,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -638,28 +648,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,7 +663,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,22 +678,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -722,15 +709,31 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,7 +762,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,37 +930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,133 +942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,17 +995,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,20 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,10 +1059,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,73 +1071,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1143,62 +1146,62 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1211,21 +1214,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1549,8 +1555,8 @@
   <sheetPr/>
   <dimension ref="A1:L281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
@@ -1590,7 +1596,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -1627,7 +1633,7 @@
       <c r="J2">
         <v>60</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="13">
         <v>44645</v>
       </c>
       <c r="L2">
@@ -1661,7 +1667,7 @@
       <c r="J3">
         <v>60</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="13">
         <v>44645</v>
       </c>
       <c r="L3">
@@ -1695,7 +1701,7 @@
       <c r="J4">
         <v>60</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="13">
         <v>44645</v>
       </c>
       <c r="L4">
@@ -1729,7 +1735,7 @@
       <c r="J5">
         <v>60</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="13">
         <v>44645</v>
       </c>
       <c r="L5">
@@ -1763,7 +1769,7 @@
       <c r="J6">
         <v>60</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="13">
         <v>44645</v>
       </c>
       <c r="L6">
@@ -1797,7 +1803,7 @@
       <c r="J7">
         <v>60</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>44645</v>
       </c>
       <c r="L7">
@@ -1831,7 +1837,7 @@
       <c r="J8">
         <v>60</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="13">
         <v>44645</v>
       </c>
       <c r="L8">
@@ -1865,7 +1871,7 @@
       <c r="J9">
         <v>60</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>44645</v>
       </c>
       <c r="L9">
@@ -1899,7 +1905,7 @@
       <c r="J10">
         <v>60</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="13">
         <v>44645</v>
       </c>
       <c r="L10">
@@ -1933,7 +1939,7 @@
       <c r="J11">
         <v>60</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="13">
         <v>44645</v>
       </c>
       <c r="L11">
@@ -1967,7 +1973,7 @@
       <c r="J12">
         <v>60</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="13">
         <v>44645</v>
       </c>
       <c r="L12">
@@ -2001,7 +2007,7 @@
       <c r="J13">
         <v>60</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="13">
         <v>44645</v>
       </c>
       <c r="L13">
@@ -2035,7 +2041,7 @@
       <c r="J14">
         <v>60</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="13">
         <v>44645</v>
       </c>
       <c r="L14">
@@ -2069,7 +2075,7 @@
       <c r="J15">
         <v>60</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="13">
         <v>44645</v>
       </c>
       <c r="L15">
@@ -2103,7 +2109,7 @@
       <c r="J16">
         <v>60</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="13">
         <v>44645</v>
       </c>
       <c r="L16">
@@ -2137,7 +2143,7 @@
       <c r="J17">
         <v>60</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="13">
         <v>44645</v>
       </c>
       <c r="L17">
@@ -2171,7 +2177,7 @@
       <c r="J18">
         <v>60</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="13">
         <v>44645</v>
       </c>
       <c r="L18">
@@ -2205,7 +2211,7 @@
       <c r="J19">
         <v>60</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <v>44645</v>
       </c>
       <c r="L19">
@@ -2239,7 +2245,7 @@
       <c r="J20">
         <v>60</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="13">
         <v>44645</v>
       </c>
       <c r="L20">
@@ -2273,7 +2279,7 @@
       <c r="J21">
         <v>60</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <v>44645</v>
       </c>
       <c r="L21">
@@ -2307,7 +2313,7 @@
       <c r="J22">
         <v>60</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>44645</v>
       </c>
       <c r="L22">
@@ -2341,7 +2347,7 @@
       <c r="J23">
         <v>60</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <v>44645</v>
       </c>
       <c r="L23">
@@ -2375,7 +2381,7 @@
       <c r="J24">
         <v>60</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <v>44645</v>
       </c>
       <c r="L24">
@@ -2409,7 +2415,7 @@
       <c r="J25">
         <v>60</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <v>44645</v>
       </c>
       <c r="L25">
@@ -2443,7 +2449,7 @@
       <c r="J26">
         <v>60</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="13">
         <v>44645</v>
       </c>
       <c r="L26">
@@ -2477,7 +2483,7 @@
       <c r="J27">
         <v>60</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="13">
         <v>44645</v>
       </c>
       <c r="L27">
@@ -2511,7 +2517,7 @@
       <c r="J28">
         <v>60</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="13">
         <v>44645</v>
       </c>
       <c r="L28">
@@ -2545,7 +2551,7 @@
       <c r="J29">
         <v>60</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="13">
         <v>44645</v>
       </c>
       <c r="L29">
@@ -2579,7 +2585,7 @@
       <c r="J30">
         <v>60</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="13">
         <v>44645</v>
       </c>
       <c r="L30">
@@ -2613,7 +2619,7 @@
       <c r="J31">
         <v>60</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="13">
         <v>44645</v>
       </c>
       <c r="L31">
@@ -2647,7 +2653,7 @@
       <c r="J32">
         <v>60</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="13">
         <v>44645</v>
       </c>
       <c r="L32">
@@ -2681,7 +2687,7 @@
       <c r="J33">
         <v>60</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="13">
         <v>44645</v>
       </c>
       <c r="L33">
@@ -2715,7 +2721,7 @@
       <c r="J34">
         <v>60</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="13">
         <v>44645</v>
       </c>
       <c r="L34">
@@ -2749,7 +2755,7 @@
       <c r="J35">
         <v>60</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="13">
         <v>44645</v>
       </c>
       <c r="L35">
@@ -2783,7 +2789,7 @@
       <c r="J36">
         <v>60</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="13">
         <v>44645</v>
       </c>
       <c r="L36">
@@ -2817,7 +2823,7 @@
       <c r="J37">
         <v>60</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="13">
         <v>44645</v>
       </c>
       <c r="L37">
@@ -2851,7 +2857,7 @@
       <c r="J38">
         <v>60</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="13">
         <v>44645</v>
       </c>
       <c r="L38">
@@ -2885,7 +2891,7 @@
       <c r="J39">
         <v>60</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="13">
         <v>44645</v>
       </c>
       <c r="L39">
@@ -2919,7 +2925,7 @@
       <c r="J40">
         <v>60</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="13">
         <v>44645</v>
       </c>
       <c r="L40">
@@ -2953,7 +2959,7 @@
       <c r="J41">
         <v>60</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="13">
         <v>44645</v>
       </c>
       <c r="L41">
@@ -2987,7 +2993,7 @@
       <c r="J42">
         <v>60</v>
       </c>
-      <c r="K42" s="12">
+      <c r="K42" s="13">
         <v>44645</v>
       </c>
       <c r="L42">
@@ -3021,7 +3027,7 @@
       <c r="J43">
         <v>60</v>
       </c>
-      <c r="K43" s="12">
+      <c r="K43" s="13">
         <v>44645</v>
       </c>
       <c r="L43">
@@ -3055,7 +3061,7 @@
       <c r="J44">
         <v>60</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="13">
         <v>44645</v>
       </c>
       <c r="L44">
@@ -3089,7 +3095,7 @@
       <c r="J45">
         <v>60</v>
       </c>
-      <c r="K45" s="12">
+      <c r="K45" s="13">
         <v>44645</v>
       </c>
       <c r="L45">
@@ -3123,7 +3129,7 @@
       <c r="J46">
         <v>60</v>
       </c>
-      <c r="K46" s="12">
+      <c r="K46" s="13">
         <v>44645</v>
       </c>
       <c r="L46">
@@ -3157,7 +3163,7 @@
       <c r="J47">
         <v>60</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="13">
         <v>44645</v>
       </c>
       <c r="L47">
@@ -3191,7 +3197,7 @@
       <c r="J48">
         <v>60</v>
       </c>
-      <c r="K48" s="12">
+      <c r="K48" s="13">
         <v>44645</v>
       </c>
       <c r="L48">
@@ -3225,7 +3231,7 @@
       <c r="J49">
         <v>60</v>
       </c>
-      <c r="K49" s="12">
+      <c r="K49" s="13">
         <v>44645</v>
       </c>
       <c r="L49">
@@ -3259,7 +3265,7 @@
       <c r="J50">
         <v>60</v>
       </c>
-      <c r="K50" s="12">
+      <c r="K50" s="13">
         <v>44645</v>
       </c>
       <c r="L50">
@@ -3293,7 +3299,7 @@
       <c r="J51">
         <v>60</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="13">
         <v>44645</v>
       </c>
       <c r="L51">
@@ -3327,7 +3333,7 @@
       <c r="J52">
         <v>60</v>
       </c>
-      <c r="K52" s="12">
+      <c r="K52" s="13">
         <v>44645</v>
       </c>
       <c r="L52">
@@ -3361,7 +3367,7 @@
       <c r="J53">
         <v>60</v>
       </c>
-      <c r="K53" s="12">
+      <c r="K53" s="13">
         <v>44645</v>
       </c>
       <c r="L53">
@@ -3395,7 +3401,7 @@
       <c r="J54">
         <v>60</v>
       </c>
-      <c r="K54" s="12">
+      <c r="K54" s="13">
         <v>44645</v>
       </c>
       <c r="L54">
@@ -3429,7 +3435,7 @@
       <c r="J55">
         <v>60</v>
       </c>
-      <c r="K55" s="12">
+      <c r="K55" s="13">
         <v>44645</v>
       </c>
       <c r="L55">
@@ -3463,7 +3469,7 @@
       <c r="J56">
         <v>60</v>
       </c>
-      <c r="K56" s="12">
+      <c r="K56" s="13">
         <v>44645</v>
       </c>
       <c r="L56">
@@ -3497,7 +3503,7 @@
       <c r="J57">
         <v>60</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="13">
         <v>44645</v>
       </c>
       <c r="L57">
@@ -3531,7 +3537,7 @@
       <c r="J58">
         <v>60</v>
       </c>
-      <c r="K58" s="12">
+      <c r="K58" s="13">
         <v>44645</v>
       </c>
       <c r="L58">
@@ -3565,7 +3571,7 @@
       <c r="J59">
         <v>60</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="13">
         <v>44645</v>
       </c>
       <c r="L59">
@@ -3599,7 +3605,7 @@
       <c r="J60">
         <v>60</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="13">
         <v>44645</v>
       </c>
       <c r="L60">
@@ -3633,7 +3639,7 @@
       <c r="J61">
         <v>60</v>
       </c>
-      <c r="K61" s="12">
+      <c r="K61" s="13">
         <v>44645</v>
       </c>
       <c r="L61">
@@ -3671,7 +3677,7 @@
       <c r="J62">
         <v>60</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="13">
         <v>44645</v>
       </c>
       <c r="L62">
@@ -3709,7 +3715,7 @@
       <c r="J63">
         <v>60</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="13">
         <v>44645</v>
       </c>
       <c r="L63">
@@ -3747,7 +3753,7 @@
       <c r="J64">
         <v>60</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="13">
         <v>44645</v>
       </c>
       <c r="L64">
@@ -3785,7 +3791,7 @@
       <c r="J65">
         <v>60</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="13">
         <v>44645</v>
       </c>
       <c r="L65">
@@ -3823,7 +3829,7 @@
       <c r="J66">
         <v>60</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="13">
         <v>44645</v>
       </c>
       <c r="L66">
@@ -3861,7 +3867,7 @@
       <c r="J67">
         <v>60</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="13">
         <v>44645</v>
       </c>
       <c r="L67">
@@ -3899,7 +3905,7 @@
       <c r="J68">
         <v>60</v>
       </c>
-      <c r="K68" s="12">
+      <c r="K68" s="13">
         <v>44645</v>
       </c>
       <c r="L68">
@@ -3937,7 +3943,7 @@
       <c r="J69">
         <v>60</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="13">
         <v>44645</v>
       </c>
       <c r="L69">
@@ -3975,7 +3981,7 @@
       <c r="J70">
         <v>60</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="13">
         <v>44645</v>
       </c>
       <c r="L70">
@@ -4013,7 +4019,7 @@
       <c r="J71">
         <v>60</v>
       </c>
-      <c r="K71" s="12">
+      <c r="K71" s="13">
         <v>44645</v>
       </c>
       <c r="L71">
@@ -4051,7 +4057,7 @@
       <c r="J72">
         <v>60</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="13">
         <v>44645</v>
       </c>
       <c r="L72">
@@ -4089,7 +4095,7 @@
       <c r="J73">
         <v>60</v>
       </c>
-      <c r="K73" s="12">
+      <c r="K73" s="13">
         <v>44645</v>
       </c>
       <c r="L73">
@@ -4127,7 +4133,7 @@
       <c r="J74">
         <v>60</v>
       </c>
-      <c r="K74" s="12">
+      <c r="K74" s="13">
         <v>44645</v>
       </c>
       <c r="L74">
@@ -4165,7 +4171,7 @@
       <c r="J75">
         <v>60</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="13">
         <v>44645</v>
       </c>
       <c r="L75">
@@ -4203,7 +4209,7 @@
       <c r="J76">
         <v>60</v>
       </c>
-      <c r="K76" s="12">
+      <c r="K76" s="13">
         <v>44645</v>
       </c>
       <c r="L76">
@@ -4241,7 +4247,7 @@
       <c r="J77">
         <v>60</v>
       </c>
-      <c r="K77" s="12">
+      <c r="K77" s="13">
         <v>44645</v>
       </c>
       <c r="L77">
@@ -4279,7 +4285,7 @@
       <c r="J78">
         <v>60</v>
       </c>
-      <c r="K78" s="12">
+      <c r="K78" s="13">
         <v>44645</v>
       </c>
       <c r="L78">
@@ -4317,7 +4323,7 @@
       <c r="J79">
         <v>60</v>
       </c>
-      <c r="K79" s="12">
+      <c r="K79" s="13">
         <v>44645</v>
       </c>
       <c r="L79">
@@ -4355,7 +4361,7 @@
       <c r="J80">
         <v>60</v>
       </c>
-      <c r="K80" s="12">
+      <c r="K80" s="13">
         <v>44645</v>
       </c>
       <c r="L80">
@@ -4393,7 +4399,7 @@
       <c r="J81">
         <v>60</v>
       </c>
-      <c r="K81" s="12">
+      <c r="K81" s="13">
         <v>44645</v>
       </c>
       <c r="L81">
@@ -4431,7 +4437,7 @@
       <c r="J82">
         <v>60</v>
       </c>
-      <c r="K82" s="12">
+      <c r="K82" s="13">
         <v>44645</v>
       </c>
       <c r="L82">
@@ -4469,7 +4475,7 @@
       <c r="J83">
         <v>60</v>
       </c>
-      <c r="K83" s="12">
+      <c r="K83" s="13">
         <v>44645</v>
       </c>
       <c r="L83">
@@ -4507,7 +4513,7 @@
       <c r="J84">
         <v>60</v>
       </c>
-      <c r="K84" s="12">
+      <c r="K84" s="13">
         <v>44645</v>
       </c>
       <c r="L84">
@@ -4545,7 +4551,7 @@
       <c r="J85">
         <v>60</v>
       </c>
-      <c r="K85" s="12">
+      <c r="K85" s="13">
         <v>44645</v>
       </c>
       <c r="L85">
@@ -4583,7 +4589,7 @@
       <c r="J86">
         <v>60</v>
       </c>
-      <c r="K86" s="12">
+      <c r="K86" s="13">
         <v>44645</v>
       </c>
       <c r="L86">
@@ -4621,7 +4627,7 @@
       <c r="J87">
         <v>60</v>
       </c>
-      <c r="K87" s="12">
+      <c r="K87" s="13">
         <v>44645</v>
       </c>
       <c r="L87">
@@ -4659,7 +4665,7 @@
       <c r="J88">
         <v>60</v>
       </c>
-      <c r="K88" s="12">
+      <c r="K88" s="13">
         <v>44645</v>
       </c>
       <c r="L88">
@@ -4697,7 +4703,7 @@
       <c r="J89">
         <v>60</v>
       </c>
-      <c r="K89" s="12">
+      <c r="K89" s="13">
         <v>44645</v>
       </c>
       <c r="L89">
@@ -4735,7 +4741,7 @@
       <c r="J90">
         <v>60</v>
       </c>
-      <c r="K90" s="12">
+      <c r="K90" s="13">
         <v>44645</v>
       </c>
       <c r="L90">
@@ -4773,7 +4779,7 @@
       <c r="J91">
         <v>60</v>
       </c>
-      <c r="K91" s="12">
+      <c r="K91" s="13">
         <v>44645</v>
       </c>
       <c r="L91">
@@ -4811,7 +4817,7 @@
       <c r="J92">
         <v>60</v>
       </c>
-      <c r="K92" s="12">
+      <c r="K92" s="13">
         <v>44645</v>
       </c>
       <c r="L92">
@@ -4849,7 +4855,7 @@
       <c r="J93">
         <v>60</v>
       </c>
-      <c r="K93" s="12">
+      <c r="K93" s="13">
         <v>44645</v>
       </c>
       <c r="L93">
@@ -4887,7 +4893,7 @@
       <c r="J94">
         <v>60</v>
       </c>
-      <c r="K94" s="12">
+      <c r="K94" s="13">
         <v>44645</v>
       </c>
       <c r="L94">
@@ -4925,7 +4931,7 @@
       <c r="J95">
         <v>60</v>
       </c>
-      <c r="K95" s="12">
+      <c r="K95" s="13">
         <v>44645</v>
       </c>
       <c r="L95">
@@ -4963,7 +4969,7 @@
       <c r="J96">
         <v>60</v>
       </c>
-      <c r="K96" s="12">
+      <c r="K96" s="13">
         <v>44645</v>
       </c>
       <c r="L96">
@@ -5001,7 +5007,7 @@
       <c r="J97">
         <v>60</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="13">
         <v>44645</v>
       </c>
       <c r="L97">
@@ -5039,7 +5045,7 @@
       <c r="J98">
         <v>60</v>
       </c>
-      <c r="K98" s="12">
+      <c r="K98" s="13">
         <v>44645</v>
       </c>
       <c r="L98">
@@ -5077,7 +5083,7 @@
       <c r="J99">
         <v>60</v>
       </c>
-      <c r="K99" s="12">
+      <c r="K99" s="13">
         <v>44645</v>
       </c>
       <c r="L99">
@@ -5115,7 +5121,7 @@
       <c r="J100">
         <v>60</v>
       </c>
-      <c r="K100" s="12">
+      <c r="K100" s="13">
         <v>44645</v>
       </c>
       <c r="L100">
@@ -5153,7 +5159,7 @@
       <c r="J101">
         <v>60</v>
       </c>
-      <c r="K101" s="12">
+      <c r="K101" s="13">
         <v>44645</v>
       </c>
       <c r="L101">
@@ -5191,7 +5197,7 @@
       <c r="J102">
         <v>60</v>
       </c>
-      <c r="K102" s="12">
+      <c r="K102" s="13">
         <v>44645</v>
       </c>
       <c r="L102">
@@ -5229,7 +5235,7 @@
       <c r="J103">
         <v>60</v>
       </c>
-      <c r="K103" s="12">
+      <c r="K103" s="13">
         <v>44645</v>
       </c>
       <c r="L103">
@@ -5267,7 +5273,7 @@
       <c r="J104">
         <v>60</v>
       </c>
-      <c r="K104" s="12">
+      <c r="K104" s="13">
         <v>44645</v>
       </c>
       <c r="L104">
@@ -5305,7 +5311,7 @@
       <c r="J105">
         <v>60</v>
       </c>
-      <c r="K105" s="12">
+      <c r="K105" s="13">
         <v>44645</v>
       </c>
       <c r="L105">
@@ -5343,7 +5349,7 @@
       <c r="J106">
         <v>60</v>
       </c>
-      <c r="K106" s="12">
+      <c r="K106" s="13">
         <v>44645</v>
       </c>
       <c r="L106">
@@ -5381,7 +5387,7 @@
       <c r="J107">
         <v>60</v>
       </c>
-      <c r="K107" s="12">
+      <c r="K107" s="13">
         <v>44645</v>
       </c>
       <c r="L107">
@@ -5419,7 +5425,7 @@
       <c r="J108">
         <v>60</v>
       </c>
-      <c r="K108" s="12">
+      <c r="K108" s="13">
         <v>44645</v>
       </c>
       <c r="L108">
@@ -5457,7 +5463,7 @@
       <c r="J109">
         <v>60</v>
       </c>
-      <c r="K109" s="12">
+      <c r="K109" s="13">
         <v>44645</v>
       </c>
       <c r="L109">
@@ -5495,7 +5501,7 @@
       <c r="J110">
         <v>60</v>
       </c>
-      <c r="K110" s="12">
+      <c r="K110" s="13">
         <v>44645</v>
       </c>
       <c r="L110">
@@ -5533,7 +5539,7 @@
       <c r="J111">
         <v>60</v>
       </c>
-      <c r="K111" s="12">
+      <c r="K111" s="13">
         <v>44645</v>
       </c>
       <c r="L111">
@@ -5571,7 +5577,7 @@
       <c r="J112">
         <v>60</v>
       </c>
-      <c r="K112" s="12">
+      <c r="K112" s="13">
         <v>44645</v>
       </c>
       <c r="L112">
@@ -5609,7 +5615,7 @@
       <c r="J113">
         <v>60</v>
       </c>
-      <c r="K113" s="12">
+      <c r="K113" s="13">
         <v>44645</v>
       </c>
       <c r="L113">
@@ -5647,7 +5653,7 @@
       <c r="J114">
         <v>60</v>
       </c>
-      <c r="K114" s="12">
+      <c r="K114" s="13">
         <v>44645</v>
       </c>
       <c r="L114">
@@ -5685,7 +5691,7 @@
       <c r="J115">
         <v>60</v>
       </c>
-      <c r="K115" s="12">
+      <c r="K115" s="13">
         <v>44645</v>
       </c>
       <c r="L115">
@@ -5723,7 +5729,7 @@
       <c r="J116">
         <v>60</v>
       </c>
-      <c r="K116" s="12">
+      <c r="K116" s="13">
         <v>44645</v>
       </c>
       <c r="L116">
@@ -5761,7 +5767,7 @@
       <c r="J117">
         <v>60</v>
       </c>
-      <c r="K117" s="12">
+      <c r="K117" s="13">
         <v>44645</v>
       </c>
       <c r="L117">
@@ -5799,7 +5805,7 @@
       <c r="J118">
         <v>60</v>
       </c>
-      <c r="K118" s="12">
+      <c r="K118" s="13">
         <v>44645</v>
       </c>
       <c r="L118">
@@ -5837,7 +5843,7 @@
       <c r="J119">
         <v>60</v>
       </c>
-      <c r="K119" s="12">
+      <c r="K119" s="13">
         <v>44645</v>
       </c>
       <c r="L119">
@@ -5875,7 +5881,7 @@
       <c r="J120">
         <v>60</v>
       </c>
-      <c r="K120" s="12">
+      <c r="K120" s="13">
         <v>44645</v>
       </c>
       <c r="L120">
@@ -5913,7 +5919,7 @@
       <c r="J121">
         <v>60</v>
       </c>
-      <c r="K121" s="12">
+      <c r="K121" s="13">
         <v>44645</v>
       </c>
       <c r="L121">
@@ -5951,7 +5957,7 @@
       <c r="J122">
         <v>60</v>
       </c>
-      <c r="K122" s="12">
+      <c r="K122" s="13">
         <v>44645</v>
       </c>
       <c r="L122">
@@ -5989,7 +5995,7 @@
       <c r="J123">
         <v>60</v>
       </c>
-      <c r="K123" s="12">
+      <c r="K123" s="13">
         <v>44645</v>
       </c>
       <c r="L123">
@@ -6027,7 +6033,7 @@
       <c r="J124">
         <v>60</v>
       </c>
-      <c r="K124" s="12">
+      <c r="K124" s="13">
         <v>44645</v>
       </c>
       <c r="L124">
@@ -6065,7 +6071,7 @@
       <c r="J125">
         <v>60</v>
       </c>
-      <c r="K125" s="12">
+      <c r="K125" s="13">
         <v>44645</v>
       </c>
       <c r="L125">
@@ -6103,7 +6109,7 @@
       <c r="J126">
         <v>60</v>
       </c>
-      <c r="K126" s="12">
+      <c r="K126" s="13">
         <v>44645</v>
       </c>
       <c r="L126">
@@ -6141,7 +6147,7 @@
       <c r="J127">
         <v>60</v>
       </c>
-      <c r="K127" s="12">
+      <c r="K127" s="13">
         <v>44645</v>
       </c>
       <c r="L127">
@@ -6179,7 +6185,7 @@
       <c r="J128">
         <v>60</v>
       </c>
-      <c r="K128" s="12">
+      <c r="K128" s="13">
         <v>44645</v>
       </c>
       <c r="L128">
@@ -6217,7 +6223,7 @@
       <c r="J129">
         <v>60</v>
       </c>
-      <c r="K129" s="12">
+      <c r="K129" s="13">
         <v>44645</v>
       </c>
       <c r="L129">
@@ -6255,7 +6261,7 @@
       <c r="J130">
         <v>60</v>
       </c>
-      <c r="K130" s="12">
+      <c r="K130" s="13">
         <v>44645</v>
       </c>
       <c r="L130">
@@ -6293,7 +6299,7 @@
       <c r="J131">
         <v>60</v>
       </c>
-      <c r="K131" s="12">
+      <c r="K131" s="13">
         <v>44645</v>
       </c>
       <c r="L131">
@@ -6331,7 +6337,7 @@
       <c r="J132">
         <v>60</v>
       </c>
-      <c r="K132" s="12">
+      <c r="K132" s="13">
         <v>44645</v>
       </c>
       <c r="L132">
@@ -6369,7 +6375,7 @@
       <c r="J133">
         <v>60</v>
       </c>
-      <c r="K133" s="12">
+      <c r="K133" s="13">
         <v>44645</v>
       </c>
       <c r="L133">
@@ -6407,7 +6413,7 @@
       <c r="J134">
         <v>60</v>
       </c>
-      <c r="K134" s="12">
+      <c r="K134" s="13">
         <v>44645</v>
       </c>
       <c r="L134">
@@ -6445,7 +6451,7 @@
       <c r="J135">
         <v>60</v>
       </c>
-      <c r="K135" s="12">
+      <c r="K135" s="13">
         <v>44645</v>
       </c>
       <c r="L135">
@@ -6483,7 +6489,7 @@
       <c r="J136">
         <v>60</v>
       </c>
-      <c r="K136" s="12">
+      <c r="K136" s="13">
         <v>44645</v>
       </c>
       <c r="L136">
@@ -6521,7 +6527,7 @@
       <c r="J137">
         <v>60</v>
       </c>
-      <c r="K137" s="12">
+      <c r="K137" s="13">
         <v>44645</v>
       </c>
       <c r="L137">
@@ -6559,7 +6565,7 @@
       <c r="J138">
         <v>60</v>
       </c>
-      <c r="K138" s="12">
+      <c r="K138" s="13">
         <v>44645</v>
       </c>
       <c r="L138">
@@ -6597,7 +6603,7 @@
       <c r="J139">
         <v>60</v>
       </c>
-      <c r="K139" s="12">
+      <c r="K139" s="13">
         <v>44645</v>
       </c>
       <c r="L139">
@@ -6635,7 +6641,7 @@
       <c r="J140">
         <v>60</v>
       </c>
-      <c r="K140" s="12">
+      <c r="K140" s="13">
         <v>44645</v>
       </c>
       <c r="L140">
@@ -6673,7 +6679,7 @@
       <c r="J141">
         <v>60</v>
       </c>
-      <c r="K141" s="12">
+      <c r="K141" s="13">
         <v>44645</v>
       </c>
       <c r="L141">
@@ -6711,7 +6717,7 @@
       <c r="J142">
         <v>60</v>
       </c>
-      <c r="K142" s="12">
+      <c r="K142" s="13">
         <v>44645</v>
       </c>
       <c r="L142">
@@ -6749,7 +6755,7 @@
       <c r="J143">
         <v>60</v>
       </c>
-      <c r="K143" s="12">
+      <c r="K143" s="13">
         <v>44645</v>
       </c>
       <c r="L143">
@@ -6787,7 +6793,7 @@
       <c r="J144">
         <v>60</v>
       </c>
-      <c r="K144" s="12">
+      <c r="K144" s="13">
         <v>44645</v>
       </c>
       <c r="L144">
@@ -6825,7 +6831,7 @@
       <c r="J145">
         <v>60</v>
       </c>
-      <c r="K145" s="12">
+      <c r="K145" s="13">
         <v>44645</v>
       </c>
       <c r="L145">
@@ -6863,7 +6869,7 @@
       <c r="J146">
         <v>60</v>
       </c>
-      <c r="K146" s="12">
+      <c r="K146" s="13">
         <v>44645</v>
       </c>
       <c r="L146">
@@ -6901,7 +6907,7 @@
       <c r="J147">
         <v>60</v>
       </c>
-      <c r="K147" s="12">
+      <c r="K147" s="13">
         <v>44645</v>
       </c>
       <c r="L147">
@@ -6939,7 +6945,7 @@
       <c r="J148">
         <v>60</v>
       </c>
-      <c r="K148" s="12">
+      <c r="K148" s="13">
         <v>44645</v>
       </c>
       <c r="L148">
@@ -6977,7 +6983,7 @@
       <c r="J149">
         <v>60</v>
       </c>
-      <c r="K149" s="12">
+      <c r="K149" s="13">
         <v>44645</v>
       </c>
       <c r="L149">
@@ -7015,7 +7021,7 @@
       <c r="J150">
         <v>60</v>
       </c>
-      <c r="K150" s="12">
+      <c r="K150" s="13">
         <v>44645</v>
       </c>
       <c r="L150">
@@ -7053,7 +7059,7 @@
       <c r="J151">
         <v>60</v>
       </c>
-      <c r="K151" s="12">
+      <c r="K151" s="13">
         <v>44645</v>
       </c>
       <c r="L151">
@@ -7091,7 +7097,7 @@
       <c r="J152">
         <v>60</v>
       </c>
-      <c r="K152" s="12">
+      <c r="K152" s="13">
         <v>44645</v>
       </c>
       <c r="L152">
@@ -7129,7 +7135,7 @@
       <c r="J153">
         <v>60</v>
       </c>
-      <c r="K153" s="12">
+      <c r="K153" s="13">
         <v>44645</v>
       </c>
       <c r="L153">
@@ -7167,7 +7173,7 @@
       <c r="J154">
         <v>60</v>
       </c>
-      <c r="K154" s="12">
+      <c r="K154" s="13">
         <v>44645</v>
       </c>
       <c r="L154">
@@ -7205,7 +7211,7 @@
       <c r="J155">
         <v>60</v>
       </c>
-      <c r="K155" s="12">
+      <c r="K155" s="13">
         <v>44645</v>
       </c>
       <c r="L155">
@@ -7243,7 +7249,7 @@
       <c r="J156">
         <v>60</v>
       </c>
-      <c r="K156" s="12">
+      <c r="K156" s="13">
         <v>44645</v>
       </c>
       <c r="L156">
@@ -7281,7 +7287,7 @@
       <c r="J157">
         <v>60</v>
       </c>
-      <c r="K157" s="12">
+      <c r="K157" s="13">
         <v>44645</v>
       </c>
       <c r="L157">
@@ -7319,7 +7325,7 @@
       <c r="J158">
         <v>60</v>
       </c>
-      <c r="K158" s="12">
+      <c r="K158" s="13">
         <v>44645</v>
       </c>
       <c r="L158">
@@ -7357,7 +7363,7 @@
       <c r="J159">
         <v>60</v>
       </c>
-      <c r="K159" s="12">
+      <c r="K159" s="13">
         <v>44645</v>
       </c>
       <c r="L159">
@@ -7395,7 +7401,7 @@
       <c r="J160">
         <v>60</v>
       </c>
-      <c r="K160" s="12">
+      <c r="K160" s="13">
         <v>44645</v>
       </c>
       <c r="L160">
@@ -7433,7 +7439,7 @@
       <c r="J161">
         <v>60</v>
       </c>
-      <c r="K161" s="12">
+      <c r="K161" s="13">
         <v>44645</v>
       </c>
       <c r="L161">
@@ -7471,7 +7477,7 @@
       <c r="J162">
         <v>60</v>
       </c>
-      <c r="K162" s="12">
+      <c r="K162" s="13">
         <v>44645</v>
       </c>
       <c r="L162">
@@ -7509,7 +7515,7 @@
       <c r="J163">
         <v>60</v>
       </c>
-      <c r="K163" s="12">
+      <c r="K163" s="13">
         <v>44645</v>
       </c>
       <c r="L163">
@@ -7547,7 +7553,7 @@
       <c r="J164">
         <v>60</v>
       </c>
-      <c r="K164" s="12">
+      <c r="K164" s="13">
         <v>44645</v>
       </c>
       <c r="L164">
@@ -7585,7 +7591,7 @@
       <c r="J165">
         <v>60</v>
       </c>
-      <c r="K165" s="12">
+      <c r="K165" s="13">
         <v>44645</v>
       </c>
       <c r="L165">
@@ -7623,7 +7629,7 @@
       <c r="J166">
         <v>60</v>
       </c>
-      <c r="K166" s="12">
+      <c r="K166" s="13">
         <v>44645</v>
       </c>
       <c r="L166">
@@ -7661,7 +7667,7 @@
       <c r="J167">
         <v>60</v>
       </c>
-      <c r="K167" s="12">
+      <c r="K167" s="13">
         <v>44645</v>
       </c>
       <c r="L167">
@@ -7699,7 +7705,7 @@
       <c r="J168">
         <v>60</v>
       </c>
-      <c r="K168" s="12">
+      <c r="K168" s="13">
         <v>44645</v>
       </c>
       <c r="L168">
@@ -7737,7 +7743,7 @@
       <c r="J169">
         <v>60</v>
       </c>
-      <c r="K169" s="12">
+      <c r="K169" s="13">
         <v>44645</v>
       </c>
       <c r="L169">
@@ -7775,7 +7781,7 @@
       <c r="J170">
         <v>60</v>
       </c>
-      <c r="K170" s="12">
+      <c r="K170" s="13">
         <v>44645</v>
       </c>
       <c r="L170">
@@ -7813,7 +7819,7 @@
       <c r="J171">
         <v>60</v>
       </c>
-      <c r="K171" s="12">
+      <c r="K171" s="13">
         <v>44645</v>
       </c>
       <c r="L171">
@@ -7851,7 +7857,7 @@
       <c r="J172">
         <v>60</v>
       </c>
-      <c r="K172" s="12">
+      <c r="K172" s="13">
         <v>44645</v>
       </c>
       <c r="L172">
@@ -7889,7 +7895,7 @@
       <c r="J173">
         <v>60</v>
       </c>
-      <c r="K173" s="12">
+      <c r="K173" s="13">
         <v>44645</v>
       </c>
       <c r="L173">
@@ -7927,7 +7933,7 @@
       <c r="J174">
         <v>60</v>
       </c>
-      <c r="K174" s="12">
+      <c r="K174" s="13">
         <v>44645</v>
       </c>
       <c r="L174">
@@ -7965,7 +7971,7 @@
       <c r="J175">
         <v>60</v>
       </c>
-      <c r="K175" s="12">
+      <c r="K175" s="13">
         <v>44645</v>
       </c>
       <c r="L175">
@@ -8003,7 +8009,7 @@
       <c r="J176">
         <v>60</v>
       </c>
-      <c r="K176" s="12">
+      <c r="K176" s="13">
         <v>44645</v>
       </c>
       <c r="L176">
@@ -8041,7 +8047,7 @@
       <c r="J177">
         <v>60</v>
       </c>
-      <c r="K177" s="12">
+      <c r="K177" s="13">
         <v>44645</v>
       </c>
       <c r="L177">
@@ -8079,7 +8085,7 @@
       <c r="J178">
         <v>60</v>
       </c>
-      <c r="K178" s="12">
+      <c r="K178" s="13">
         <v>44645</v>
       </c>
       <c r="L178">
@@ -8117,7 +8123,7 @@
       <c r="J179">
         <v>60</v>
       </c>
-      <c r="K179" s="12">
+      <c r="K179" s="13">
         <v>44645</v>
       </c>
       <c r="L179">
@@ -8155,7 +8161,7 @@
       <c r="J180">
         <v>60</v>
       </c>
-      <c r="K180" s="12">
+      <c r="K180" s="13">
         <v>44645</v>
       </c>
       <c r="L180">
@@ -8193,7 +8199,7 @@
       <c r="J181">
         <v>60</v>
       </c>
-      <c r="K181" s="12">
+      <c r="K181" s="13">
         <v>44645</v>
       </c>
       <c r="L181">
@@ -8231,7 +8237,7 @@
       <c r="J182">
         <v>60</v>
       </c>
-      <c r="K182" s="12">
+      <c r="K182" s="13">
         <v>44645</v>
       </c>
       <c r="L182">
@@ -8269,7 +8275,7 @@
       <c r="J183">
         <v>60</v>
       </c>
-      <c r="K183" s="12">
+      <c r="K183" s="13">
         <v>44645</v>
       </c>
       <c r="L183">
@@ -8307,7 +8313,7 @@
       <c r="J184">
         <v>60</v>
       </c>
-      <c r="K184" s="12">
+      <c r="K184" s="13">
         <v>44645</v>
       </c>
       <c r="L184">
@@ -8345,7 +8351,7 @@
       <c r="J185">
         <v>60</v>
       </c>
-      <c r="K185" s="12">
+      <c r="K185" s="13">
         <v>44645</v>
       </c>
       <c r="L185">
@@ -8383,7 +8389,7 @@
       <c r="J186">
         <v>60</v>
       </c>
-      <c r="K186" s="12">
+      <c r="K186" s="13">
         <v>44645</v>
       </c>
       <c r="L186">
@@ -8421,7 +8427,7 @@
       <c r="J187">
         <v>60</v>
       </c>
-      <c r="K187" s="12">
+      <c r="K187" s="13">
         <v>44645</v>
       </c>
       <c r="L187">
@@ -8459,7 +8465,7 @@
       <c r="J188">
         <v>60</v>
       </c>
-      <c r="K188" s="12">
+      <c r="K188" s="13">
         <v>44645</v>
       </c>
       <c r="L188">
@@ -8497,7 +8503,7 @@
       <c r="J189">
         <v>60</v>
       </c>
-      <c r="K189" s="12">
+      <c r="K189" s="13">
         <v>44645</v>
       </c>
       <c r="L189">
@@ -8535,7 +8541,7 @@
       <c r="J190">
         <v>60</v>
       </c>
-      <c r="K190" s="12">
+      <c r="K190" s="13">
         <v>44645</v>
       </c>
       <c r="L190">
@@ -8573,7 +8579,7 @@
       <c r="J191">
         <v>60</v>
       </c>
-      <c r="K191" s="12">
+      <c r="K191" s="13">
         <v>44645</v>
       </c>
       <c r="L191">
@@ -8611,7 +8617,7 @@
       <c r="J192">
         <v>60</v>
       </c>
-      <c r="K192" s="12">
+      <c r="K192" s="13">
         <v>44645</v>
       </c>
       <c r="L192">
@@ -8649,7 +8655,7 @@
       <c r="J193">
         <v>60</v>
       </c>
-      <c r="K193" s="12">
+      <c r="K193" s="13">
         <v>44645</v>
       </c>
       <c r="L193">
@@ -8687,7 +8693,7 @@
       <c r="J194">
         <v>60</v>
       </c>
-      <c r="K194" s="12">
+      <c r="K194" s="13">
         <v>44645</v>
       </c>
       <c r="L194">
@@ -8725,7 +8731,7 @@
       <c r="J195">
         <v>60</v>
       </c>
-      <c r="K195" s="12">
+      <c r="K195" s="13">
         <v>44645</v>
       </c>
       <c r="L195">
@@ -8763,7 +8769,7 @@
       <c r="J196">
         <v>60</v>
       </c>
-      <c r="K196" s="12">
+      <c r="K196" s="13">
         <v>44645</v>
       </c>
       <c r="L196">
@@ -8801,7 +8807,7 @@
       <c r="J197">
         <v>60</v>
       </c>
-      <c r="K197" s="12">
+      <c r="K197" s="13">
         <v>44645</v>
       </c>
       <c r="L197">
@@ -8839,7 +8845,7 @@
       <c r="J198">
         <v>60</v>
       </c>
-      <c r="K198" s="12">
+      <c r="K198" s="13">
         <v>44645</v>
       </c>
       <c r="L198">
@@ -8877,7 +8883,7 @@
       <c r="J199">
         <v>60</v>
       </c>
-      <c r="K199" s="12">
+      <c r="K199" s="13">
         <v>44645</v>
       </c>
       <c r="L199">
@@ -8915,7 +8921,7 @@
       <c r="J200">
         <v>60</v>
       </c>
-      <c r="K200" s="12">
+      <c r="K200" s="13">
         <v>44645</v>
       </c>
       <c r="L200">
@@ -8953,7 +8959,7 @@
       <c r="J201">
         <v>60</v>
       </c>
-      <c r="K201" s="12">
+      <c r="K201" s="13">
         <v>44645</v>
       </c>
       <c r="L201">
@@ -8991,7 +8997,7 @@
       <c r="J202">
         <v>60</v>
       </c>
-      <c r="K202" s="12">
+      <c r="K202" s="13">
         <v>44645</v>
       </c>
       <c r="L202">
@@ -9029,7 +9035,7 @@
       <c r="J203">
         <v>60</v>
       </c>
-      <c r="K203" s="12">
+      <c r="K203" s="13">
         <v>44645</v>
       </c>
       <c r="L203">
@@ -9067,7 +9073,7 @@
       <c r="J204">
         <v>60</v>
       </c>
-      <c r="K204" s="12">
+      <c r="K204" s="13">
         <v>44645</v>
       </c>
       <c r="L204">
@@ -9105,7 +9111,7 @@
       <c r="J205">
         <v>60</v>
       </c>
-      <c r="K205" s="12">
+      <c r="K205" s="13">
         <v>44645</v>
       </c>
       <c r="L205">
@@ -9143,7 +9149,7 @@
       <c r="J206">
         <v>60</v>
       </c>
-      <c r="K206" s="12">
+      <c r="K206" s="13">
         <v>44645</v>
       </c>
       <c r="L206">
@@ -9181,7 +9187,7 @@
       <c r="J207">
         <v>60</v>
       </c>
-      <c r="K207" s="12">
+      <c r="K207" s="13">
         <v>44645</v>
       </c>
       <c r="L207">
@@ -9219,7 +9225,7 @@
       <c r="J208">
         <v>60</v>
       </c>
-      <c r="K208" s="12">
+      <c r="K208" s="13">
         <v>44645</v>
       </c>
       <c r="L208">
@@ -9257,7 +9263,7 @@
       <c r="J209">
         <v>60</v>
       </c>
-      <c r="K209" s="12">
+      <c r="K209" s="13">
         <v>44645</v>
       </c>
       <c r="L209">
@@ -9295,7 +9301,7 @@
       <c r="J210">
         <v>60</v>
       </c>
-      <c r="K210" s="12">
+      <c r="K210" s="13">
         <v>44645</v>
       </c>
       <c r="L210">
@@ -9333,7 +9339,7 @@
       <c r="J211">
         <v>60</v>
       </c>
-      <c r="K211" s="12">
+      <c r="K211" s="13">
         <v>44645</v>
       </c>
       <c r="L211">
@@ -9371,7 +9377,7 @@
       <c r="J212">
         <v>60</v>
       </c>
-      <c r="K212" s="12">
+      <c r="K212" s="13">
         <v>44645</v>
       </c>
       <c r="L212">
@@ -9409,7 +9415,7 @@
       <c r="J213">
         <v>60</v>
       </c>
-      <c r="K213" s="12">
+      <c r="K213" s="13">
         <v>44645</v>
       </c>
       <c r="L213">
@@ -9447,7 +9453,7 @@
       <c r="J214">
         <v>60</v>
       </c>
-      <c r="K214" s="12">
+      <c r="K214" s="13">
         <v>44645</v>
       </c>
       <c r="L214">
@@ -9485,7 +9491,7 @@
       <c r="J215">
         <v>60</v>
       </c>
-      <c r="K215" s="12">
+      <c r="K215" s="13">
         <v>44645</v>
       </c>
       <c r="L215">
@@ -9523,7 +9529,7 @@
       <c r="J216">
         <v>60</v>
       </c>
-      <c r="K216" s="12">
+      <c r="K216" s="13">
         <v>44645</v>
       </c>
       <c r="L216">
@@ -9561,7 +9567,7 @@
       <c r="J217">
         <v>60</v>
       </c>
-      <c r="K217" s="12">
+      <c r="K217" s="13">
         <v>44645</v>
       </c>
       <c r="L217">
@@ -9599,7 +9605,7 @@
       <c r="J218">
         <v>60</v>
       </c>
-      <c r="K218" s="12">
+      <c r="K218" s="13">
         <v>44645</v>
       </c>
       <c r="L218">
@@ -9637,7 +9643,7 @@
       <c r="J219">
         <v>60</v>
       </c>
-      <c r="K219" s="12">
+      <c r="K219" s="13">
         <v>44645</v>
       </c>
       <c r="L219">
@@ -9675,7 +9681,7 @@
       <c r="J220">
         <v>60</v>
       </c>
-      <c r="K220" s="12">
+      <c r="K220" s="13">
         <v>44645</v>
       </c>
       <c r="L220">
@@ -9713,7 +9719,7 @@
       <c r="J221">
         <v>60</v>
       </c>
-      <c r="K221" s="12">
+      <c r="K221" s="13">
         <v>44645</v>
       </c>
       <c r="L221">
@@ -9751,7 +9757,7 @@
       <c r="J222">
         <v>60</v>
       </c>
-      <c r="K222" s="12">
+      <c r="K222" s="13">
         <v>44645</v>
       </c>
       <c r="L222">
@@ -9789,7 +9795,7 @@
       <c r="J223">
         <v>60</v>
       </c>
-      <c r="K223" s="12">
+      <c r="K223" s="13">
         <v>44645</v>
       </c>
       <c r="L223">
@@ -9827,7 +9833,7 @@
       <c r="J224">
         <v>60</v>
       </c>
-      <c r="K224" s="12">
+      <c r="K224" s="13">
         <v>44645</v>
       </c>
       <c r="L224">
@@ -9865,7 +9871,7 @@
       <c r="J225">
         <v>60</v>
       </c>
-      <c r="K225" s="12">
+      <c r="K225" s="13">
         <v>44645</v>
       </c>
       <c r="L225">
@@ -9903,7 +9909,7 @@
       <c r="J226">
         <v>60</v>
       </c>
-      <c r="K226" s="12">
+      <c r="K226" s="13">
         <v>44645</v>
       </c>
       <c r="L226">
@@ -9941,7 +9947,7 @@
       <c r="J227">
         <v>60</v>
       </c>
-      <c r="K227" s="12">
+      <c r="K227" s="13">
         <v>44645</v>
       </c>
       <c r="L227">
@@ -9979,7 +9985,7 @@
       <c r="J228">
         <v>60</v>
       </c>
-      <c r="K228" s="12">
+      <c r="K228" s="13">
         <v>44645</v>
       </c>
       <c r="L228">
@@ -10017,7 +10023,7 @@
       <c r="J229">
         <v>60</v>
       </c>
-      <c r="K229" s="12">
+      <c r="K229" s="13">
         <v>44645</v>
       </c>
       <c r="L229">
@@ -10055,7 +10061,7 @@
       <c r="J230">
         <v>60</v>
       </c>
-      <c r="K230" s="12">
+      <c r="K230" s="13">
         <v>44645</v>
       </c>
       <c r="L230">
@@ -10093,7 +10099,7 @@
       <c r="J231">
         <v>60</v>
       </c>
-      <c r="K231" s="12">
+      <c r="K231" s="13">
         <v>44645</v>
       </c>
       <c r="L231">
@@ -10131,7 +10137,7 @@
       <c r="J232">
         <v>60</v>
       </c>
-      <c r="K232" s="12">
+      <c r="K232" s="13">
         <v>44645</v>
       </c>
       <c r="L232">
@@ -10169,7 +10175,7 @@
       <c r="J233">
         <v>60</v>
       </c>
-      <c r="K233" s="12">
+      <c r="K233" s="13">
         <v>44645</v>
       </c>
       <c r="L233">
@@ -10207,7 +10213,7 @@
       <c r="J234">
         <v>60</v>
       </c>
-      <c r="K234" s="12">
+      <c r="K234" s="13">
         <v>44645</v>
       </c>
       <c r="L234">
@@ -10245,7 +10251,7 @@
       <c r="J235">
         <v>60</v>
       </c>
-      <c r="K235" s="12">
+      <c r="K235" s="13">
         <v>44645</v>
       </c>
       <c r="L235">
@@ -10283,7 +10289,7 @@
       <c r="J236">
         <v>60</v>
       </c>
-      <c r="K236" s="12">
+      <c r="K236" s="13">
         <v>44645</v>
       </c>
       <c r="L236">
@@ -10321,7 +10327,7 @@
       <c r="J237">
         <v>60</v>
       </c>
-      <c r="K237" s="12">
+      <c r="K237" s="13">
         <v>44645</v>
       </c>
       <c r="L237">
@@ -10359,7 +10365,7 @@
       <c r="J238">
         <v>60</v>
       </c>
-      <c r="K238" s="12">
+      <c r="K238" s="13">
         <v>44645</v>
       </c>
       <c r="L238">
@@ -10397,7 +10403,7 @@
       <c r="J239">
         <v>60</v>
       </c>
-      <c r="K239" s="12">
+      <c r="K239" s="13">
         <v>44645</v>
       </c>
       <c r="L239">
@@ -10435,7 +10441,7 @@
       <c r="J240">
         <v>60</v>
       </c>
-      <c r="K240" s="12">
+      <c r="K240" s="13">
         <v>44645</v>
       </c>
       <c r="L240">
@@ -10473,7 +10479,7 @@
       <c r="J241">
         <v>60</v>
       </c>
-      <c r="K241" s="12">
+      <c r="K241" s="13">
         <v>44645</v>
       </c>
       <c r="L241">
@@ -10511,7 +10517,7 @@
       <c r="J242">
         <v>60</v>
       </c>
-      <c r="K242" s="12">
+      <c r="K242" s="13">
         <v>44645</v>
       </c>
       <c r="L242">
@@ -10549,7 +10555,7 @@
       <c r="J243">
         <v>60</v>
       </c>
-      <c r="K243" s="12">
+      <c r="K243" s="13">
         <v>44645</v>
       </c>
       <c r="L243">
@@ -10587,7 +10593,7 @@
       <c r="J244">
         <v>60</v>
       </c>
-      <c r="K244" s="12">
+      <c r="K244" s="13">
         <v>44645</v>
       </c>
       <c r="L244">
@@ -10625,7 +10631,7 @@
       <c r="J245">
         <v>60</v>
       </c>
-      <c r="K245" s="12">
+      <c r="K245" s="13">
         <v>44645</v>
       </c>
       <c r="L245">
@@ -10663,7 +10669,7 @@
       <c r="J246">
         <v>60</v>
       </c>
-      <c r="K246" s="12">
+      <c r="K246" s="13">
         <v>44645</v>
       </c>
       <c r="L246">
@@ -10701,7 +10707,7 @@
       <c r="J247">
         <v>60</v>
       </c>
-      <c r="K247" s="12">
+      <c r="K247" s="13">
         <v>44645</v>
       </c>
       <c r="L247">
@@ -10739,7 +10745,7 @@
       <c r="J248">
         <v>60</v>
       </c>
-      <c r="K248" s="12">
+      <c r="K248" s="13">
         <v>44645</v>
       </c>
       <c r="L248">
@@ -10777,7 +10783,7 @@
       <c r="J249">
         <v>60</v>
       </c>
-      <c r="K249" s="12">
+      <c r="K249" s="13">
         <v>44645</v>
       </c>
       <c r="L249">
@@ -10815,7 +10821,7 @@
       <c r="J250">
         <v>60</v>
       </c>
-      <c r="K250" s="12">
+      <c r="K250" s="13">
         <v>44645</v>
       </c>
       <c r="L250">
@@ -10853,7 +10859,7 @@
       <c r="J251">
         <v>60</v>
       </c>
-      <c r="K251" s="12">
+      <c r="K251" s="13">
         <v>44645</v>
       </c>
       <c r="L251">
@@ -10891,7 +10897,7 @@
       <c r="J252">
         <v>60</v>
       </c>
-      <c r="K252" s="12">
+      <c r="K252" s="13">
         <v>44645</v>
       </c>
       <c r="L252">
@@ -10929,7 +10935,7 @@
       <c r="J253">
         <v>60</v>
       </c>
-      <c r="K253" s="12">
+      <c r="K253" s="13">
         <v>44645</v>
       </c>
       <c r="L253">
@@ -14515,7 +14521,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
@@ -14571,10 +14577,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -14582,7 +14588,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -14590,7 +14596,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
